--- a/Stats/Model_Stats_8.xlsx
+++ b/Stats/Model_Stats_8.xlsx
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>94099.99999999999</v>
+        <v>9.409999999999998</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
